--- a/MWS/Application/VariousDocumentOut/Doc/Excel/10-終了届.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/10-終了届.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5120741-E9D4-4B07-87D2-3620EBCEBAFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9094136-B424-413A-9DA6-11C137B39F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
 </t>
   </si>
   <si>
-    <t>作成日　　2021 年 02 月 26 日</t>
+    <t>作成日　　2021 年 06 月 11 日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1034,6 +1034,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1338,9 +1341,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1891,10 +1891,22 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>〒160-0022</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>〒</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>277-0871</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1957,7 +1969,19 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>KOIL TERRACE 5F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2021,14 +2045,102 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>東京都新宿区新宿</a:t>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>千葉県柏市若柴</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1-8-5</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>226</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>番地</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>44</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 中央</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>141</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>街区</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2092,14 +2204,22 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ＦＡＸ</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>ＦＡＸ </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>03-3350-1870</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>04-7130-9002</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2163,7 +2283,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>株式会社ミック</a:t>
           </a:r>
         </a:p>
@@ -4317,7 +4437,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4393,244 +4515,244 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="112" t="s">
+      <c r="W13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
     <row r="14" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="23"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="50" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="53"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="25"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="44" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="5" t="s">
         <v>0</v>
       </c>
@@ -4645,23 +4767,23 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -4672,23 +4794,23 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
       <c r="S23" s="5" t="s">
         <v>1</v>
       </c>
@@ -4703,23 +4825,23 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -4730,64 +4852,64 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="38" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="38" t="s">
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="41"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="31"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
@@ -5240,91 +5362,91 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="53" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
     </row>
     <row r="45" spans="2:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+      <c r="Z45" s="55"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
       <c r="M49" s="3" t="s">
@@ -5541,236 +5663,236 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="23"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="50" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="53"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="25"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="44" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="5" t="s">
         <v>0</v>
       </c>
@@ -5785,23 +5907,23 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -5812,23 +5934,23 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
       <c r="S23" s="5" t="s">
         <v>1</v>
       </c>
@@ -5843,23 +5965,23 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -5870,71 +5992,71 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="38" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="38" t="s">
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="41"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="31"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="5" t="s">
         <v>49</v>
       </c>
@@ -5965,9 +6087,9 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -6021,152 +6143,152 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="38" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="41"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="31"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="32"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="40"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="41"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="43"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="44"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="31"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="32"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -6191,9 +6313,9 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -6218,176 +6340,176 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="22"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="23"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="74" t="s">
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="44"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="31"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="32"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="77"/>
-      <c r="S42" s="77"/>
-      <c r="T42" s="77"/>
-      <c r="U42" s="77"/>
-      <c r="V42" s="77"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="77"/>
-      <c r="Y42" s="77"/>
-      <c r="Z42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="78"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="78"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="77"/>
-      <c r="S43" s="77"/>
-      <c r="T43" s="77"/>
-      <c r="U43" s="77"/>
-      <c r="V43" s="77"/>
-      <c r="W43" s="77"/>
-      <c r="X43" s="77"/>
-      <c r="Y43" s="77"/>
-      <c r="Z43" s="77"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="78"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
       <c r="M46" s="3" t="s">
@@ -6529,74 +6651,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="85" t="s">
+      <c r="Q1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -6653,33 +6775,33 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q18" s="5" t="s">
@@ -6699,400 +6821,400 @@
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="97" t="s">
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="100"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="25"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="97" t="s">
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="100"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="52"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="53"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="25"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="97" t="s">
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="100"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="52"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="53"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="25"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="26"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="40"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="41"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="43"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="44"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="105"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="43"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="44"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="31"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
@@ -7100,7 +7222,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="111" t="s">
+      <c r="E34" s="112" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="5"/>
